--- a/biology/Botanique/Anthericaceae/Anthericaceae.xlsx
+++ b/biology/Botanique/Anthericaceae/Anthericaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthericaceae (Anthéricacées) sont une ancienne famille de plantes monocotylédones qui comprenait 285 espèces réparties en 8 genres : Anthericum, Chlorophytum, Echeandia, Leucocrinum, etc.
 Ce sont des plantes herbacées ou des arbustes, pérennes, certaines à rosette, rhizomateuses, tubéreuses ou à racine épaissie. C'est une famille largement répandue.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Anthericum, du grec ανθος / anthos, fleur, nom que donnaient les grecs à la tige de l'Asphodèle et que les latins appelaient Albuca[1].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Anthericum, du grec ανθος / anthos, fleur, nom que donnaient les grecs à la tige de l'Asphodèle et que les latins appelaient Albuca.   
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[2] l'a séparée des Liliacées et rattachée à l'ordre des Asparagales.
-En classification phylogénétique APG II (2003)[3] elle est incorporée aux Agavacées.
-En classification phylogénétique APG III (2009)[4] elle est incorporée aux Asparagaceae, sous-famille Agavoideae
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) l'a séparée des Liliacées et rattachée à l'ordre des Asparagales.
+En classification phylogénétique APG II (2003) elle est incorporée aux Agavacées.
+En classification phylogénétique APG III (2009) elle est incorporée aux Asparagaceae, sous-famille Agavoideae
 </t>
         </is>
       </c>
